--- a/Control_de_lectura/S1M22018_Control de lectura Padre Rico Padre Pobre.xlsx
+++ b/Control_de_lectura/S1M22018_Control de lectura Padre Rico Padre Pobre.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Eddye\S1M2_Logica matemática\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Eddye\LM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Desde</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>TUMBACO SANTANA TITO RONALDO</t>
+  </si>
+  <si>
+    <t>MOSQUERA SANDOVAL JAIRO ALEXANDER</t>
   </si>
 </sst>
 </file>
@@ -292,7 +295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -334,12 +337,16 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -672,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I38"/>
+  <dimension ref="A2:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,10 +709,10 @@
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="7"/>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="28"/>
+      <c r="D5" s="31"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
@@ -807,13 +814,17 @@
       <c r="B15" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
+      <c r="C15" s="27">
+        <v>10</v>
+      </c>
+      <c r="D15" s="32">
+        <v>10</v>
+      </c>
       <c r="E15" s="23"/>
       <c r="F15" s="24"/>
       <c r="G15" s="25">
         <f>SUM(C15:F15)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I15"/>
     </row>
@@ -824,13 +835,17 @@
       <c r="B16" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
+      <c r="C16" s="28">
+        <v>9</v>
+      </c>
+      <c r="D16" s="10">
+        <v>9</v>
+      </c>
       <c r="E16" s="12"/>
       <c r="F16" s="19"/>
       <c r="G16" s="12">
         <f>SUM(C16:F16)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -840,13 +855,17 @@
       <c r="B17" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="10"/>
+      <c r="C17" s="28">
+        <v>8</v>
+      </c>
+      <c r="D17" s="10">
+        <v>10</v>
+      </c>
       <c r="E17" s="12"/>
       <c r="F17" s="19"/>
       <c r="G17" s="12">
-        <f t="shared" ref="G17:G37" si="2">SUM(C17:F17)</f>
-        <v>0</v>
+        <f t="shared" ref="G17:G38" si="2">SUM(C17:F17)</f>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -856,13 +875,17 @@
       <c r="B18" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="18"/>
+      <c r="C18" s="28">
+        <v>8</v>
+      </c>
+      <c r="D18" s="18">
+        <v>7</v>
+      </c>
       <c r="E18" s="12"/>
       <c r="F18" s="19"/>
       <c r="G18" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -872,13 +895,17 @@
       <c r="B19" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="18"/>
+      <c r="C19" s="28">
+        <v>10</v>
+      </c>
+      <c r="D19" s="18">
+        <v>10</v>
+      </c>
       <c r="E19" s="12"/>
       <c r="F19" s="19"/>
       <c r="G19" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -888,13 +915,17 @@
       <c r="B20" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="18"/>
+      <c r="C20" s="28">
+        <v>6</v>
+      </c>
+      <c r="D20" s="18">
+        <v>10</v>
+      </c>
       <c r="E20" s="12"/>
       <c r="F20" s="19"/>
       <c r="G20" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -904,13 +935,17 @@
       <c r="B21" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="18"/>
+      <c r="C21" s="28">
+        <v>9</v>
+      </c>
+      <c r="D21" s="18">
+        <v>9</v>
+      </c>
       <c r="E21" s="12"/>
       <c r="F21" s="19"/>
       <c r="G21" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -920,13 +955,17 @@
       <c r="B22" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="18"/>
+      <c r="C22" s="28">
+        <v>9</v>
+      </c>
+      <c r="D22" s="18">
+        <v>10</v>
+      </c>
       <c r="E22" s="12"/>
       <c r="F22" s="19"/>
       <c r="G22" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -934,15 +973,19 @@
         <v>9</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="18"/>
+        <v>27</v>
+      </c>
+      <c r="C23" s="28">
+        <v>8</v>
+      </c>
+      <c r="D23" s="18">
+        <v>9</v>
+      </c>
       <c r="E23" s="12"/>
       <c r="F23" s="19"/>
       <c r="G23" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -950,15 +993,19 @@
         <v>10</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="18"/>
+        <v>22</v>
+      </c>
+      <c r="C24" s="28">
+        <v>9</v>
+      </c>
+      <c r="D24" s="18">
+        <v>9</v>
+      </c>
       <c r="E24" s="12"/>
       <c r="F24" s="19"/>
       <c r="G24" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -966,55 +1013,75 @@
         <v>11</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="18"/>
+        <v>23</v>
+      </c>
+      <c r="C25" s="28">
+        <v>9</v>
+      </c>
+      <c r="D25" s="18">
+        <v>6</v>
+      </c>
       <c r="E25" s="12"/>
       <c r="F25" s="19"/>
       <c r="G25" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>12</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="20"/>
+        <v>24</v>
+      </c>
+      <c r="C26" s="28">
+        <v>9</v>
+      </c>
+      <c r="D26" s="18">
+        <v>10</v>
+      </c>
+      <c r="E26" s="12"/>
       <c r="F26" s="19"/>
-      <c r="G26" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I26"/>
+      <c r="G26" s="12">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
     </row>
     <row r="27" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="26">
         <v>13</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="18"/>
+        <v>25</v>
+      </c>
+      <c r="C27" s="29">
+        <v>10</v>
+      </c>
+      <c r="D27" s="18">
+        <v>10</v>
+      </c>
       <c r="E27" s="20"/>
       <c r="F27" s="19"/>
       <c r="G27" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I27"/>
     </row>
     <row r="28" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="22"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="18"/>
+      <c r="A28">
+        <v>14</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="20">
+        <v>0</v>
+      </c>
+      <c r="D28" s="18">
+        <v>0</v>
+      </c>
       <c r="E28" s="20"/>
       <c r="F28" s="19"/>
       <c r="G28" s="20">
@@ -1093,6 +1160,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="I34"/>
     </row>
     <row r="35" spans="2:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="22"/>
@@ -1127,13 +1195,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="5"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="13"/>
+    <row r="38" spans="2:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="22"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="5"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
